--- a/data.xlsx
+++ b/data.xlsx
@@ -1,32 +1,46 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4ba23d5b7de37717/Documentos/proyectos/03_sankey_diagram/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4ba23d5b7de37717/Documentos/proyectos/GDP_visualization/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="11_F25DC773A252ABDACC104888C19C6AFE5BDE58F4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4034C09B-FA42-421D-B092-D201822081B8}"/>
+  <xr:revisionPtr revIDLastSave="162" documentId="11_F25DC773A252ABDACC104888C19C6AFE5BDE58F4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4048F7AE-F83A-4FB7-AD73-FAD69EA0F8DF}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="demanda" sheetId="1" r:id="rId1"/>
     <sheet name="oferta" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
+    <sheet name="flujo" sheetId="4" r:id="rId4"/>
+    <sheet name="list" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="50">
   <si>
     <t xml:space="preserve">    Gasto en consumo final</t>
   </si>
@@ -134,6 +148,48 @@
   </si>
   <si>
     <t xml:space="preserve">    Impuestos menos subvenciones sobre los productos</t>
+  </si>
+  <si>
+    <t>node</t>
+  </si>
+  <si>
+    <t>next node</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>GDP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Exportaciones netas</t>
+  </si>
+  <si>
+    <t>Sector</t>
+  </si>
+  <si>
+    <t>Demanda Nacional</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>target</t>
+  </si>
+  <si>
+    <t>PIB</t>
+  </si>
+  <si>
+    <t>Demanda total</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>Industria manufacturera</t>
+  </si>
+  <si>
+    <t>Otras industrias</t>
   </si>
 </sst>
 </file>
@@ -228,7 +284,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -238,14 +294,9 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="5" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -265,6 +316,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -530,10 +585,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -541,15 +596,15 @@
     <col min="1" max="1" width="44.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>22</v>
       </c>
       <c r="B1">
-        <v>2024</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -557,173 +612,153 @@
         <v>1040844</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3">
+        <v>289220</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="5">
+        <v>16313</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="3"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B7" s="3">
         <v>751825</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="C7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B8" s="3">
         <v>14786</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="C8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B9" s="3">
         <v>274233</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="C9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="3">
+        <v>270310</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="3">
-        <v>289220</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="3">
-        <v>270310</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="3">
-        <v>222799</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="3">
-        <v>141909</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="3">
-        <v>77489</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B11" s="3">
-        <v>3401</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+        <v>16353</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B12" s="3">
-        <v>47511</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2557</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B13" s="3">
-        <v>16353</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+        <v>392349</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B14" s="3">
-        <v>2557</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+        <v>157970</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="3">
-        <v>550319</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="3">
-        <v>392349</v>
-      </c>
+      <c r="D14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="3"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="3"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="3">
-        <v>157970</v>
-      </c>
+      <c r="A17" s="1"/>
+      <c r="B17" s="3"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="3">
-        <v>58672</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="3">
-        <v>534006</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="3">
-        <v>451537</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="3">
-        <v>82469</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" s="3">
-        <v>16897</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23" s="3">
-        <v>1346377</v>
-      </c>
+      <c r="A18" s="4"/>
+      <c r="B18" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -732,10 +767,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68DDFFFE-31A9-41F6-97B6-D6312E0D53DC}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -744,115 +779,1011 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="8">
+      <c r="B2" s="3">
         <v>31483</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B3" s="3">
         <v>213706</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="3">
+        <v>66268</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="3">
+        <v>914175</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="3">
+        <v>120745</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
+      <c r="B8" s="3"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="3"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="3"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="3"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="3"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95EFBB39-BE43-4477-B4B9-4F23A3A02F89}">
+  <dimension ref="A1:F33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14:E26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="3">
+        <v>751825</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="3">
+        <v>14786</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="3">
+        <v>274233</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="3">
+        <v>1040844</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="3">
+        <v>751825</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="3">
+        <v>14786</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" s="3">
+        <v>31483</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="3">
+        <v>274233</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" s="3">
+        <v>213706</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="3">
+        <v>289220</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="8">
+      <c r="F16" s="3">
         <v>153552</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="3">
+        <v>270310</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="8">
+      <c r="F17" s="3">
         <v>66268</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="3">
+        <v>222799</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="8">
+      <c r="F18" s="3">
         <v>914175</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="3">
+        <v>141909</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="8">
+      <c r="F19" s="3">
         <v>295057</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="3">
+        <v>77489</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="8">
+      <c r="F20" s="3">
         <v>46815</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="3">
+        <v>3401</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="8">
+      <c r="F21" s="3">
         <v>52662</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="3">
+        <v>47511</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="8">
+      <c r="F22" s="3">
         <v>139835</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" s="3">
+        <v>16353</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="8">
+      <c r="F23" s="3">
         <v>109491</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" s="3">
+        <v>2557</v>
+      </c>
+      <c r="E24" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="8">
+      <c r="F24" s="3">
         <v>217855</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" s="3">
+        <v>550319</v>
+      </c>
+      <c r="E25" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="8">
+      <c r="F25" s="3">
         <v>52460</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26" s="3">
+        <v>392349</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="8">
+      <c r="F26" s="3">
         <v>120745</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27" s="3">
+        <v>157970</v>
+      </c>
+      <c r="E27" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="8">
+      <c r="F27" s="3">
         <v>1346377</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B28" s="3">
+        <v>58672</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B29" s="3">
+        <v>534006</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B30" s="3">
+        <v>451537</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B31" s="3">
+        <v>82469</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B32" s="3">
+        <v>16897</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B33" s="3">
+        <v>1346377</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3971382D-662F-4FE0-8A96-464BD1F3FEF8}">
+  <dimension ref="A1:C35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="39.7109375" customWidth="1"/>
+    <col min="2" max="2" width="37.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="3">
+        <v>1040844</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="3">
+        <v>751825</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="3">
+        <v>14786</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="3">
+        <v>274233</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="3">
+        <v>289220</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="3">
+        <v>270310</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="3">
+        <v>222799</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="3">
+        <v>141909</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="3">
+        <v>77489</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="3">
+        <v>3401</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="3">
+        <v>47511</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="3">
+        <v>16353</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="3">
+        <v>2557</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="3">
+        <v>550319</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="3">
+        <v>392349</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="3">
+        <v>157970</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="3">
+        <v>534006</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="3">
+        <v>451537</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="3">
+        <v>82469</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="5">
+        <f>C2+C6+C15-C18</f>
+        <v>1346377</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="3">
+        <v>31483</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="3">
+        <v>213706</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" s="3">
+        <v>66268</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" s="3">
+        <v>914175</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" s="3">
+        <v>120745</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C27" s="3">
+        <v>153552</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C28" s="5">
+        <f>C23-C27</f>
+        <v>60154</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" s="3">
+        <v>295057</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30" s="3">
+        <v>46815</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31" s="3">
+        <v>52662</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C32" s="3">
+        <v>139835</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C33" s="3">
+        <v>109491</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C34" s="3">
+        <v>217855</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C35" s="3">
+        <v>52460</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB88CA3A-9099-4851-A300-D1F34FFF121D}">
+  <dimension ref="A1:B36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="38.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B23" s="6"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24" s="6"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
